--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/010_异质物养成.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/010_异质物养成.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94EB198-7FD9-4C91-837F-C77D235724E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E04CEFA-9017-4039-8E6A-F169DC289BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28410" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26460" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Unit|id(100,999)" sheetId="5" r:id="rId1"/>
